--- a/public/cohort/fileExcel/xlsxUIT/NA PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/NA PTA en onderwijsprogramma.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -260,16 +260,10 @@
     <t>Automaten</t>
   </si>
   <si>
-    <t>G2, I1, I3</t>
-  </si>
-  <si>
     <t>H1 en 2  - Bewegen</t>
   </si>
   <si>
     <t>H3, 6 en 9 - Elektriciteit en licht</t>
-  </si>
-  <si>
-    <t>B3, G1</t>
   </si>
   <si>
     <t>PO mechanica</t>
@@ -284,19 +278,10 @@
     <t>H1, H2, H7, H8, H11, H12 - Mechanica</t>
   </si>
   <si>
-    <t>C, D1</t>
-  </si>
-  <si>
     <t>Mterialen</t>
   </si>
   <si>
-    <t>D2, I2</t>
-  </si>
-  <si>
     <t>H5, H10, H14, H15 - Trillen, straling, zonnestelsel</t>
-  </si>
-  <si>
-    <t>B2, E1</t>
   </si>
   <si>
     <t>A</t>
@@ -317,9 +302,6 @@
     <t>Stoffen en materialen</t>
   </si>
   <si>
-    <t>E1, I1, I3</t>
-  </si>
-  <si>
     <t>H1,2,4,6,7 - mechanica</t>
   </si>
   <si>
@@ -335,31 +317,16 @@
     <t>Geo- of biofysica</t>
   </si>
   <si>
-    <t>G1, G2</t>
-  </si>
-  <si>
     <t>H13 en H14 - Straling en kernprocessen</t>
-  </si>
-  <si>
-    <t>B2, E3</t>
   </si>
   <si>
     <t>H1, H2, H4, H6, H7, H17 - Mechanica</t>
   </si>
   <si>
-    <t>C, H, I2</t>
-  </si>
-  <si>
     <t>H12, H18 H19 - Atoom-, astro- en quantumfysica</t>
   </si>
   <si>
-    <t>E2, F1</t>
-  </si>
-  <si>
     <t>H3, H8, H9, H10, H11 - Trillingen en golven, elektrische- en magnetische velden</t>
-  </si>
-  <si>
-    <t>B1, D</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1343,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1384,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I6" s="27">
         <v>1</v>
@@ -1401,9 +1368,7 @@
       <c r="O6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="32">
-        <v>0</v>
-      </c>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
@@ -1418,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I7" s="27">
         <v>2</v>
@@ -1437,9 +1402,7 @@
       <c r="O7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="32">
-        <v>0</v>
-      </c>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
@@ -1454,7 +1417,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I8" s="27">
         <v>1</v>
@@ -1473,9 +1436,7 @@
       <c r="O8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="32">
-        <v>0</v>
-      </c>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -1491,7 +1452,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I9" s="27">
         <v>2</v>
@@ -1510,9 +1471,7 @@
       <c r="O9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="32">
-        <v>0</v>
-      </c>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -1520,7 +1479,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633344907</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1528,7 +1487,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I10" s="27">
         <v>2</v>
@@ -1547,9 +1506,7 @@
       <c r="O10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="32" t="s">
-        <v>96</v>
-      </c>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -1565,7 +1522,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I11" s="27">
         <v>3</v>
@@ -1584,9 +1541,7 @@
       <c r="O11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="32">
-        <v>0</v>
-      </c>
+      <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
@@ -1629,7 +1584,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
@@ -2288,7 +2243,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2402,7 +2357,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633344907</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2557,7 +2512,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I18" s="27">
         <v>2</v>
@@ -2576,9 +2531,7 @@
       <c r="O18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="32">
-        <v>0</v>
-      </c>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
@@ -2587,7 +2540,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I19" s="27">
         <v>2</v>
@@ -2606,9 +2559,7 @@
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="32">
-        <v>0</v>
-      </c>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
@@ -2617,7 +2568,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I20" s="27">
         <v>1</v>
@@ -2636,9 +2587,7 @@
       <c r="O20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="32">
-        <v>0</v>
-      </c>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -2647,7 +2596,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I21" s="27">
         <v>1</v>
@@ -2666,9 +2615,7 @@
       <c r="O21" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="32" t="s">
-        <v>102</v>
-      </c>
+      <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
       <c r="D22" s="2"/>
@@ -2677,7 +2624,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="I22" s="27">
         <v>2</v>
@@ -2698,9 +2645,7 @@
       <c r="O22" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P22" s="32" t="s">
-        <v>104</v>
-      </c>
+      <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
       <c r="D23" s="2"/>
@@ -2742,7 +2687,7 @@
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
       <c r="G26" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
@@ -3196,7 +3141,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3310,7 +3255,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633344907</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3670,7 +3615,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="I30" s="27">
         <v>4</v>
@@ -3691,9 +3636,7 @@
       <c r="O30" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P30" s="32" t="s">
-        <v>106</v>
-      </c>
+      <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2"/>
@@ -3702,7 +3645,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I31" s="27">
         <v>3</v>
@@ -3723,9 +3666,7 @@
       <c r="O31" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P31" s="32" t="s">
-        <v>108</v>
-      </c>
+      <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2"/>
@@ -3734,7 +3675,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="I32" s="27">
         <v>4</v>
@@ -3755,9 +3696,7 @@
       <c r="O32" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P32" s="32" t="s">
-        <v>110</v>
-      </c>
+      <c r="P32" s="32"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
       <c r="D33" s="2"/>
@@ -3843,7 +3782,7 @@
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
       <c r="G38" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
@@ -4196,7 +4135,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633344907</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5151,7 +5090,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633344907</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5967,7 +5906,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633344907</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6783,7 +6722,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633344907</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7522,9 +7461,7 @@
       <c r="O6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="32">
-        <v>0</v>
-      </c>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
@@ -7558,9 +7495,7 @@
       <c r="O7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="32" t="s">
-        <v>77</v>
-      </c>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
@@ -7575,7 +7510,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I8" s="27">
         <v>2</v>
@@ -7594,9 +7529,7 @@
       <c r="O8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="32">
-        <v>0</v>
-      </c>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -7612,7 +7545,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I9" s="27">
         <v>3</v>
@@ -7633,9 +7566,7 @@
       <c r="O9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="32" t="s">
-        <v>80</v>
-      </c>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -7643,7 +7574,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633344907</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7651,7 +7582,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I10" s="27">
         <v>1</v>
@@ -7668,9 +7599,7 @@
       <c r="O10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="32">
-        <v>0</v>
-      </c>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -7686,7 +7615,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I11" s="27">
         <v>2</v>
@@ -7705,9 +7634,7 @@
       <c r="O11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="32">
-        <v>0</v>
-      </c>
+      <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
@@ -7750,7 +7677,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
@@ -8523,7 +8450,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633344907</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8678,7 +8605,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
@@ -8697,9 +8624,7 @@
       <c r="O18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="32" t="s">
-        <v>85</v>
-      </c>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
@@ -8708,7 +8633,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
@@ -8725,9 +8650,7 @@
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="32" t="s">
-        <v>87</v>
-      </c>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
@@ -8736,7 +8659,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
@@ -8755,9 +8678,7 @@
       <c r="O20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="32" t="s">
-        <v>89</v>
-      </c>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -8843,7 +8764,7 @@
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
       <c r="G26" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
@@ -9401,7 +9322,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633344907</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/NA PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/NA PTA en onderwijsprogramma.xlsx
@@ -1345,7 +1345,9 @@
       <c r="B6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>219</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -1377,7 +1379,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>220</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>1</v>
@@ -1411,7 +1415,9 @@
       <c r="B8" s="2">
         <v>64</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>221</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>2</v>
@@ -1446,7 +1452,9 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>222</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>3</v>
@@ -1479,9 +1487,11 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44336.445717593</v>
+      </c>
+      <c r="D10" s="2">
+        <v>223</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="G10" s="27">
         <v>4</v>
@@ -1516,7 +1526,9 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>224</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="G11" s="27">
         <v>4</v>
@@ -1563,7 +1575,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>157</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag A4 (schooljaar 2020 - 2021)</v>
@@ -1777,7 +1791,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>158</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag A5 (schooljaar 2021 - 2022)</v>
@@ -1982,7 +1998,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>159</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag A6 (schooljaar 2022 - 2023)</v>
@@ -2357,7 +2375,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2429,7 +2447,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>160</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag A4 (schooljaar 2019 - 2020)</v>
@@ -2506,7 +2526,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>225</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
         <v>1</v>
@@ -2534,7 +2556,9 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>226</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
         <v>2</v>
@@ -2562,7 +2586,9 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>227</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
         <v>3</v>
@@ -2590,7 +2616,9 @@
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>228</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="G21" s="27">
         <v>3</v>
@@ -2618,7 +2646,9 @@
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>229</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="G22" s="27">
         <v>4</v>
@@ -2673,7 +2703,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>161</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag A5 (schooljaar 2020 - 2021)</v>
@@ -2880,7 +2912,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>162</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag A6 (schooljaar 2021 - 2022)</v>
@@ -3255,7 +3289,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3327,7 +3361,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>163</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag A4 (schooljaar 2018 - 2019)</v>
@@ -3539,7 +3575,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>164</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag A5 (schooljaar 2019 - 2020)</v>
@@ -3609,7 +3647,9 @@
       </c>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>230</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="G30" s="27">
         <v>1</v>
@@ -3639,7 +3679,9 @@
       <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>231</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="G31" s="27">
         <v>2</v>
@@ -3669,7 +3711,9 @@
       <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>232</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="G32" s="27">
         <v>3</v>
@@ -3768,7 +3812,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>165</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag A6 (schooljaar 2020 - 2021)</v>
@@ -4135,7 +4181,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5090,7 +5136,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5906,7 +5952,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6722,7 +6768,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7436,7 +7482,9 @@
       <c r="B6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>210</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -7470,7 +7518,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>211</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>1</v>
@@ -7504,7 +7554,9 @@
       <c r="B8" s="2">
         <v>62</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>212</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>2</v>
@@ -7539,7 +7591,9 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2022</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>213</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>3</v>
@@ -7574,9 +7628,11 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44336.445717593</v>
+      </c>
+      <c r="D10" s="2">
+        <v>214</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="G10" s="27">
         <v>4</v>
@@ -7609,7 +7665,9 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>215</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="G11" s="27">
         <v>4</v>
@@ -7656,7 +7714,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>153</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag H4 (schooljaar 2020 - 2021)</v>
@@ -7870,7 +7930,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>154</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag H5 (schooljaar 2021 - 2022)</v>
@@ -8450,7 +8512,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8522,7 +8584,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>155</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag H4 (schooljaar 2019 - 2020)</v>
@@ -8599,7 +8663,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>216</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
         <v>1</v>
@@ -8627,7 +8693,9 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>217</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
         <v>2</v>
@@ -8653,7 +8721,9 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>218</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
         <v>3</v>
@@ -8750,7 +8820,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>156</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag H5 (schooljaar 2020 - 2021)</v>
@@ -9322,7 +9394,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445717593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/NA PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/NA PTA en onderwijsprogramma.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <workbookProtection lockRevision="false" lockStructure="true" lockWindows="false"/>
   <bookViews>
-    <workbookView activeTab="11" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="12" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="instellingen" sheetId="1" r:id="rId4"/>
@@ -13,13 +13,14 @@
     <sheet name="wensen" sheetId="3" r:id="rId6"/>
     <sheet name="M 2021" sheetId="4" r:id="rId7"/>
     <sheet name="M 2020" sheetId="5" r:id="rId8"/>
-    <sheet name="H 2021" sheetId="6" r:id="rId9"/>
-    <sheet name="H 2020" sheetId="7" r:id="rId10"/>
-    <sheet name="H 2019" sheetId="8" r:id="rId11"/>
-    <sheet name="A 2021" sheetId="9" r:id="rId12"/>
-    <sheet name="A 2020" sheetId="10" r:id="rId13"/>
-    <sheet name="A 2019" sheetId="11" r:id="rId14"/>
-    <sheet name="A 2018" sheetId="12" r:id="rId15"/>
+    <sheet name="M 2019" sheetId="6" r:id="rId9"/>
+    <sheet name="H 2021" sheetId="7" r:id="rId10"/>
+    <sheet name="H 2020" sheetId="8" r:id="rId11"/>
+    <sheet name="H 2019" sheetId="9" r:id="rId12"/>
+    <sheet name="A 2021" sheetId="10" r:id="rId13"/>
+    <sheet name="A 2020" sheetId="11" r:id="rId14"/>
+    <sheet name="A 2019" sheetId="12" r:id="rId15"/>
+    <sheet name="A 2018" sheetId="13" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="112">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -251,6 +252,9 @@
     <t>NA</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
@@ -260,12 +264,18 @@
     <t>Automaten</t>
   </si>
   <si>
+    <t>G2, I1, I3</t>
+  </si>
+  <si>
     <t>H1 en 2  - Bewegen</t>
   </si>
   <si>
     <t>H3, 6 en 9 - Elektriciteit en licht</t>
   </si>
   <si>
+    <t>B3, G1</t>
+  </si>
+  <si>
     <t>PO mechanica</t>
   </si>
   <si>
@@ -278,12 +288,21 @@
     <t>H1, H2, H7, H8, H11, H12 - Mechanica</t>
   </si>
   <si>
+    <t>C, D1</t>
+  </si>
+  <si>
     <t>Mterialen</t>
   </si>
   <si>
+    <t>D2, I2</t>
+  </si>
+  <si>
     <t>H5, H10, H14, H15 - Trillen, straling, zonnestelsel</t>
   </si>
   <si>
+    <t>B2, E1</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -302,6 +321,9 @@
     <t>Stoffen en materialen</t>
   </si>
   <si>
+    <t>E1, I1, I3</t>
+  </si>
+  <si>
     <t>H1,2,4,6,7 - mechanica</t>
   </si>
   <si>
@@ -317,16 +339,31 @@
     <t>Geo- of biofysica</t>
   </si>
   <si>
+    <t>G1, G2</t>
+  </si>
+  <si>
     <t>H13 en H14 - Straling en kernprocessen</t>
   </si>
   <si>
+    <t>B2, E3</t>
+  </si>
+  <si>
     <t>H1, H2, H4, H6, H7, H17 - Mechanica</t>
   </si>
   <si>
+    <t>C, H, I2</t>
+  </si>
+  <si>
     <t>H12, H18 H19 - Atoom-, astro- en quantumfysica</t>
   </si>
   <si>
+    <t>E2, F1</t>
+  </si>
+  <si>
     <t>H3, H8, H9, H10, H11 - Trillingen en golven, elektrische- en magnetische velden</t>
+  </si>
+  <si>
+    <t>B1, D</t>
   </si>
 </sst>
 </file>
@@ -1255,12 +1292,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
+      <c r="B2" s="2">
+        <v>0</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
+        <v>verouderd PTA</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -1282,25 +1319,21 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>NA leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v> leerlaag 4 (schooljaar  - 1)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2">
-        <v>15</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -1342,33 +1375,25 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="2">
-        <v>219</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="I6" s="27">
-        <v>1</v>
-      </c>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="27"/>
       <c r="M6" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N6" s="31"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
     </row>
@@ -1376,35 +1401,25 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>220</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>1</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7" s="27">
-        <v>2</v>
-      </c>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27">
-        <v>100</v>
-      </c>
+      <c r="L7" s="27"/>
       <c r="M7" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
     </row>
@@ -1412,35 +1427,25 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2">
-        <v>64</v>
-      </c>
-      <c r="D8" s="2">
-        <v>221</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>2</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8" s="27">
-        <v>1</v>
-      </c>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27">
-        <v>100</v>
-      </c>
+      <c r="L8" s="27"/>
       <c r="M8" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
     </row>
@@ -1450,34 +1455,26 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2023</v>
-      </c>
-      <c r="D9" s="2">
-        <v>222</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>3</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="27">
-        <v>2</v>
-      </c>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
       <c r="J9" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27">
-        <v>100</v>
-      </c>
+      <c r="L9" s="27"/>
       <c r="M9" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
     </row>
@@ -1487,34 +1484,26 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
-      </c>
-      <c r="D10" s="2">
-        <v>223</v>
-      </c>
+        <v>44340.444085648</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="G10" s="27">
-        <v>4</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" s="27">
-        <v>2</v>
-      </c>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K10" s="30"/>
       <c r="L10" s="27"/>
       <c r="M10" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P10" s="32"/>
     </row>
@@ -1526,32 +1515,24 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2">
-        <v>224</v>
-      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="G11" s="27">
-        <v>4</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="I11" s="27">
-        <v>3</v>
-      </c>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
       <c r="J11" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K11" s="30"/>
-      <c r="L11" s="27">
-        <v>100</v>
-      </c>
+      <c r="L11" s="27"/>
       <c r="M11" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N11" s="31"/>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P11" s="32"/>
     </row>
@@ -1570,17 +1551,15 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>0</v>
+        <v>-2020</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2">
-        <v>157</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -1595,11 +1574,9 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>81</v>
-      </c>
+        <v>2024</v>
+      </c>
+      <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -1614,7 +1591,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>NA leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v> leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -1791,12 +1768,10 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2">
-        <v>158</v>
-      </c>
+      <c r="D25" s="2"/>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -1821,7 +1796,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>NA leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v> leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -1998,12 +1973,10 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2">
-        <v>159</v>
-      </c>
+      <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -2077,44 +2050,6 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
@@ -2178,7 +2113,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -2209,7 +2144,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>NA leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>NA leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -2261,22 +2196,28 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="D6" s="2">
+        <v>219</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="27">
+        <v>1</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="27"/>
       <c r="M6" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="31"/>
       <c r="O6" s="31" t="s">
@@ -2289,22 +2230,30 @@
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>220</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>1</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="27">
+        <v>2</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
+      <c r="L7" s="27">
+        <v>100</v>
+      </c>
       <c r="M7" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
@@ -2317,22 +2266,30 @@
         <v>43</v>
       </c>
       <c r="B8" s="2">
-        <v>65</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="D8" s="2">
+        <v>221</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>2</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="27">
+        <v>1</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
+      <c r="L8" s="27">
+        <v>100</v>
+      </c>
       <c r="M8" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
@@ -2346,22 +2303,30 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2023</v>
+      </c>
+      <c r="D9" s="2">
+        <v>222</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>3</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="27">
+        <v>2</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27"/>
+      <c r="L9" s="27">
+        <v>100</v>
+      </c>
       <c r="M9" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
@@ -2375,28 +2340,38 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44340.444085648</v>
+      </c>
+      <c r="D10" s="2">
+        <v>223</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="27">
+        <v>4</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="27">
+        <v>2</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K10" s="30"/>
       <c r="L10" s="27"/>
       <c r="M10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="31">
+        <v>2</v>
+      </c>
       <c r="O10" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -2406,20 +2381,28 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>224</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="G11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
+      <c r="G11" s="27">
+        <v>4</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="27">
+        <v>3</v>
+      </c>
       <c r="J11" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="30"/>
-      <c r="L11" s="27"/>
+      <c r="L11" s="27">
+        <v>100</v>
+      </c>
       <c r="M11" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N11" s="31"/>
       <c r="O11" s="31" t="s">
@@ -2442,17 +2425,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -2467,9 +2450,11 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
-      </c>
-      <c r="G14" s="34"/>
+        <v>4</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>84</v>
+      </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -2484,7 +2469,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>NA leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>NA leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -2526,154 +2511,112 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>225</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="I18" s="27">
-        <v>2</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27">
-        <v>50</v>
-      </c>
+      <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N18" s="31"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>226</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>2</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="I19" s="27">
-        <v>2</v>
-      </c>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27">
-        <v>100</v>
-      </c>
+      <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N19" s="31"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2">
-        <v>227</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27">
-        <v>3</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" s="27">
-        <v>1</v>
-      </c>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27">
-        <v>50</v>
-      </c>
+      <c r="L20" s="27"/>
       <c r="M20" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N20" s="31"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2">
-        <v>228</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="27">
-        <v>3</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="I21" s="27">
-        <v>1</v>
-      </c>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K21" s="30"/>
       <c r="L21" s="27"/>
       <c r="M21" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N21" s="31"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2">
-        <v>229</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="G22" s="27">
-        <v>4</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="I22" s="27">
-        <v>2</v>
-      </c>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="27"/>
       <c r="J22" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K22" s="30"/>
-      <c r="L22" s="27">
-        <v>100</v>
-      </c>
+      <c r="L22" s="27"/>
       <c r="M22" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N22" s="31"/>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P22" s="32"/>
     </row>
@@ -2704,11 +2647,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -2718,9 +2661,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34" t="s">
-        <v>81</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -2735,7 +2676,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>NA leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>NA leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -2913,11 +2854,11 @@
         <v>28</v>
       </c>
       <c r="D37" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -3050,6 +2991,924 @@
   </sheetPr>
   <dimension ref="A1:Q38"/>
   <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>NA leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>65</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.444085648</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>160</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>NA leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2">
+        <v>225</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="27">
+        <v>2</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27">
+        <v>50</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="32"/>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2">
+        <v>226</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="27">
+        <v>2</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27">
+        <v>100</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="32"/>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2">
+        <v>227</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27">
+        <v>3</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" s="27">
+        <v>1</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27">
+        <v>50</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="32"/>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2">
+        <v>228</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27">
+        <v>3</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" s="27">
+        <v>1</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="31">
+        <v>1</v>
+      </c>
+      <c r="O21" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" s="32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2">
+        <v>229</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27">
+        <v>4</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" s="27">
+        <v>2</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="27">
+        <v>100</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="31">
+        <v>2</v>
+      </c>
+      <c r="O22" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="32"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>161</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>NA leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2">
+        <v>162</v>
+      </c>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
@@ -3175,7 +4034,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3289,7 +4148,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444085648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3655,7 +4514,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="I30" s="27">
         <v>4</v>
@@ -3674,9 +4533,11 @@
         <v>4</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P30" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P30" s="32" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2">
@@ -3687,7 +4548,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="I31" s="27">
         <v>3</v>
@@ -3706,9 +4567,11 @@
         <v>3</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P31" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P31" s="32" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2">
@@ -3719,7 +4582,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="I32" s="27">
         <v>4</v>
@@ -3738,9 +4601,11 @@
         <v>4</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P32" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P32" s="32" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
       <c r="D33" s="2"/>
@@ -3828,7 +4693,7 @@
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
       <c r="G38" s="34" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
@@ -4181,7 +5046,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444085648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5136,7 +6001,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444085648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5952,7 +6817,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444085648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6576,12 +7441,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige M5 (cohort 2019 - 2020)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -6603,6 +7468,871 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>NA leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>61</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2020</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.444085648</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>151</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>NA leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="32"/>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="32"/>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="32"/>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="32"/>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="32"/>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="32"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>152</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>NA leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="11">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>verouderd PTA</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
@@ -6768,7 +8498,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444085648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7348,924 +9078,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:Q38"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
-    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
-    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
-    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
-    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
-    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
-    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
-    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
-    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
-    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
-    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
-    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:17" customHeight="1" ht="48">
-      <c r="A2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="35" t="str">
-        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" customHeight="1" ht="30">
-      <c r="A4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="G4" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>NA leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" customHeight="1" ht="34.5">
-      <c r="A5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2">
-        <v>15</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" customHeight="1" ht="72">
-      <c r="A6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2">
-        <v>210</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="27">
-        <v>1</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="27">
-        <v>100</v>
-      </c>
-      <c r="M6" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="32"/>
-    </row>
-    <row r="7" spans="1:17" customHeight="1" ht="72">
-      <c r="A7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>211</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>1</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="27">
-        <v>2</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="31">
-        <v>2</v>
-      </c>
-      <c r="O7" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="32"/>
-    </row>
-    <row r="8" spans="1:17" customHeight="1" ht="72">
-      <c r="A8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="2">
-        <v>62</v>
-      </c>
-      <c r="D8" s="2">
-        <v>212</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>2</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="27">
-        <v>2</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="27">
-        <v>100</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="32"/>
-    </row>
-    <row r="9" spans="1:17" customHeight="1" ht="72">
-      <c r="A9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="4">
-        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2">
-        <v>213</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>3</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="27">
-        <v>3</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="27">
-        <v>100</v>
-      </c>
-      <c r="M9" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="31">
-        <v>3</v>
-      </c>
-      <c r="O9" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="32"/>
-    </row>
-    <row r="10" spans="1:17" customHeight="1" ht="72">
-      <c r="A10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="6">
-        <f>NOW()</f>
-        <v>44336.445717593</v>
-      </c>
-      <c r="D10" s="2">
-        <v>214</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="G10" s="27">
-        <v>4</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="27">
-        <v>1</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="32"/>
-    </row>
-    <row r="11" spans="1:17" customHeight="1" ht="72">
-      <c r="A11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="4">
-        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
-        <v>2020</v>
-      </c>
-      <c r="D11" s="2">
-        <v>215</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="G11" s="27">
-        <v>4</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="27">
-        <v>2</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="27">
-        <v>100</v>
-      </c>
-      <c r="M11" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="32"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <f>CONCATENATE(B11," - ",B11+1)</f>
-        <v>2020 - 2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="4">
-        <f>B7-B11</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2">
-        <v>153</v>
-      </c>
-      <c r="G13" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-    </row>
-    <row r="14" spans="1:17" customHeight="1" ht="72">
-      <c r="A14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="7">
-        <f>4+B11-B7</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-    </row>
-    <row r="16" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="G16" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>NA leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
-    </row>
-    <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="32"/>
-    </row>
-    <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="32"/>
-    </row>
-    <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="G21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="32"/>
-    </row>
-    <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="32"/>
-    </row>
-    <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="32"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="C25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="2">
-        <v>154</v>
-      </c>
-      <c r="G25" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-    </row>
-    <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-    </row>
-    <row r="28" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="G28" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>NA leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N29" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O29" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="G30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="32"/>
-    </row>
-    <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="G31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="32"/>
-    </row>
-    <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="G32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="32"/>
-    </row>
-    <row r="33" spans="1:17" customHeight="1" ht="72">
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="G33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="28"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="32"/>
-    </row>
-    <row r="34" spans="1:17" customHeight="1" ht="72">
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="G34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="32"/>
-    </row>
-    <row r="35" spans="1:17" customHeight="1" ht="72">
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="G35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="28"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="32"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="C37" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="G37" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-    </row>
-    <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="G26:M26"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J6:J11">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>ISBLANK($J6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:J23">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>ISBLANK($J18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J35">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>ISBLANK($J30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M11">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>ISBLANK($M6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18:M23">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>ISBLANK($M18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M30:M35">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>ISBLANK($M30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O11">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>ISBLANK($O6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O18:O23">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>ISBLANK($O18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O30:O35">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>ISBLANK($O30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
@@ -8315,7 +9127,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
+        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -8346,7 +9158,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>NA leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>NA leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -8398,22 +9210,30 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="D6" s="2">
+        <v>210</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="27">
+        <v>1</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
+      <c r="L6" s="27">
+        <v>100</v>
+      </c>
       <c r="M6" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="31"/>
       <c r="O6" s="31" t="s">
@@ -8426,50 +9246,68 @@
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>211</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>1</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="27">
+        <v>2</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K7" s="30"/>
       <c r="L7" s="27"/>
       <c r="M7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N7" s="31">
+        <v>2</v>
+      </c>
       <c r="O7" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="2">
-        <v>63</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="D8" s="2">
+        <v>212</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>2</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="27">
+        <v>2</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
+      <c r="L8" s="27">
+        <v>100</v>
+      </c>
       <c r="M8" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
@@ -8483,28 +9321,40 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2021</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2">
+        <v>213</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>3</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="27">
+        <v>3</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27"/>
+      <c r="L9" s="27">
+        <v>100</v>
+      </c>
       <c r="M9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="31">
+        <v>3</v>
+      </c>
       <c r="O9" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P9" s="32" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -8512,22 +9362,28 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44340.444085648</v>
+      </c>
+      <c r="D10" s="2">
+        <v>214</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="27">
+        <v>4</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="27">
+        <v>1</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K10" s="30"/>
       <c r="L10" s="27"/>
       <c r="M10" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
@@ -8543,20 +9399,28 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>215</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="G11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
+      <c r="G11" s="27">
+        <v>4</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="27">
+        <v>2</v>
+      </c>
       <c r="J11" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="30"/>
-      <c r="L11" s="27"/>
+      <c r="L11" s="27">
+        <v>100</v>
+      </c>
       <c r="M11" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N11" s="31"/>
       <c r="O11" s="31" t="s">
@@ -8579,17 +9443,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -8604,9 +9468,11 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
-      </c>
-      <c r="G14" s="34"/>
+        <v>4</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>84</v>
+      </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -8621,7 +9487,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>NA leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>NA leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -8663,90 +9529,68 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>216</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>82</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27">
-        <v>100</v>
-      </c>
+      <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="31">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N18" s="31"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>217</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>2</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>83</v>
-      </c>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K19" s="30"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2">
-        <v>218</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27">
-        <v>3</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>84</v>
-      </c>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27">
-        <v>100</v>
-      </c>
+      <c r="L20" s="27"/>
       <c r="M20" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="31">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
     </row>
@@ -8821,11 +9665,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -8835,9 +9679,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34" t="s">
-        <v>81</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -8852,7 +9694,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>NA leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>NA leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -9032,7 +9874,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -9202,12 +10044,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -9229,21 +10071,25 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v> leerlaag 4 (schooljaar  - 1)</v>
+        <v>NA leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>15</v>
+      </c>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -9285,7 +10131,9 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="27" t="s">
@@ -9311,7 +10159,9 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="27" t="s">
@@ -9337,7 +10187,9 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>63</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="27" t="s">
@@ -9365,7 +10217,7 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>1</v>
+        <v>2021</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -9394,7 +10246,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445717593</v>
+        <v>44340.444085648</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9461,15 +10313,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-2020</v>
+        <v>-1</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>155</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -9484,7 +10338,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>2024</v>
+        <v>5</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -9501,7 +10355,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v> leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>NA leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -9543,70 +10397,98 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>216</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>85</v>
+      </c>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27"/>
+      <c r="L18" s="27">
+        <v>100</v>
+      </c>
       <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="31">
+        <v>4</v>
+      </c>
       <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>217</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
+      <c r="G19" s="27">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>87</v>
+      </c>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K19" s="30"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="31">
+        <v>2</v>
+      </c>
       <c r="O19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>218</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
+      <c r="G20" s="27">
+        <v>3</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>89</v>
+      </c>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
+      <c r="L20" s="27">
+        <v>100</v>
+      </c>
       <c r="M20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>4</v>
+      </c>
       <c r="O20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -9678,10 +10560,12 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>156</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -9691,7 +10575,9 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
+      <c r="G26" s="34" t="s">
+        <v>84</v>
+      </c>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -9706,7 +10592,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v> leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>NA leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -9886,7 +10772,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  NA leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -9960,6 +10846,44 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>

--- a/public/cohort/fileExcel/xlsxUIT/NA PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/NA PTA en onderwijsprogramma.xlsx
@@ -1661,7 +1661,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809050926</v>
+        <v>44341.376423611</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2335,7 +2335,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809050926</v>
+        <v>44341.376423611</v>
       </c>
       <c r="D10" s="2">
         <v>214</v>
@@ -3467,7 +3467,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809050926</v>
+        <v>44341.376423611</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4575,7 +4575,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -4979,7 +4979,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809050926</v>
+        <v>44341.376423611</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5655,7 +5655,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -6089,7 +6089,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809050926</v>
+        <v>44341.376423611</v>
       </c>
       <c r="D10" s="2">
         <v>223</v>
@@ -6785,7 +6785,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -7189,7 +7189,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809050926</v>
+        <v>44341.376423611</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7913,7 +7913,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -8317,7 +8317,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809050926</v>
+        <v>44341.376423611</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9031,7 +9031,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>

--- a/public/cohort/fileExcel/xlsxUIT/NA PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/NA PTA en onderwijsprogramma.xlsx
@@ -825,21 +825,45 @@
     <t>H</t>
   </si>
   <si>
+    <t>H3 - Elektriciteit 1</t>
+  </si>
+  <si>
     <t>startJaar</t>
   </si>
   <si>
+    <t>Automaten</t>
+  </si>
+  <si>
+    <t>G2, I1, I3</t>
+  </si>
+  <si>
     <t>cid</t>
   </si>
   <si>
+    <t>H1 en 2  - Bewegen</t>
+  </si>
+  <si>
     <t>eindJaar</t>
   </si>
   <si>
+    <t>H3, 6 en 9 - Elektriciteit en licht</t>
+  </si>
+  <si>
+    <t>B3, G1</t>
+  </si>
+  <si>
     <t>vandaag</t>
   </si>
   <si>
+    <t>PO mechanica</t>
+  </si>
+  <si>
     <t>huidigStartjaar</t>
   </si>
   <si>
+    <t>H7 en 8 - Kracht en beweging</t>
+  </si>
+  <si>
     <t>huidigSchooljaar</t>
   </si>
   <si>
@@ -850,30 +874,6 @@
   </si>
   <si>
     <t>mavo?</t>
-  </si>
-  <si>
-    <t>H3 - Elektriciteit 1</t>
-  </si>
-  <si>
-    <t>Automaten</t>
-  </si>
-  <si>
-    <t>G2, I1, I3</t>
-  </si>
-  <si>
-    <t>H1 en 2  - Bewegen</t>
-  </si>
-  <si>
-    <t>H3, 6 en 9 - Elektriciteit en licht</t>
-  </si>
-  <si>
-    <t>B3, G1</t>
-  </si>
-  <si>
-    <t>PO mechanica</t>
-  </si>
-  <si>
-    <t>H7 en 8 - Kracht en beweging</t>
   </si>
   <si>
     <t>De BINAS HAVO/VWO is bij alle schriftelijke toetsen een toegestaan hulpmiddel, tenzij anders vermeld bij de toets.</t>
@@ -2312,21 +2312,29 @@
       <c r="B6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>859</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="23">
+        <v>1</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="26"/>
-      <c r="L6" s="23"/>
+      <c r="L6" s="23">
+        <v>100</v>
+      </c>
       <c r="M6" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="27"/>
       <c r="O6" s="27" t="s">
@@ -2337,56 +2345,74 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>860</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>1</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="23">
+        <v>2</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K7" s="26"/>
       <c r="L7" s="23"/>
       <c r="M7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N7" s="27">
+        <v>2</v>
+      </c>
       <c r="O7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>63</v>
+      </c>
       <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2">
         <v>224</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>861</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>2</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="23">
+        <v>2</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="26"/>
-      <c r="L8" s="23"/>
+      <c r="L8" s="23">
+        <v>100</v>
+      </c>
       <c r="M8" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="27"/>
       <c r="O8" s="27" t="s">
@@ -2397,58 +2423,76 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>862</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>3</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="23">
+        <v>3</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="26"/>
-      <c r="L9" s="23"/>
+      <c r="L9" s="23">
+        <v>100</v>
+      </c>
       <c r="M9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="27">
+        <v>3</v>
+      </c>
       <c r="O9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>68</v>
+      </c>
       <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382465278</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44342.6296875</v>
+      </c>
+      <c r="D10" s="2">
+        <v>863</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
+      <c r="G10" s="23">
+        <v>4</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="23">
+        <v>1</v>
+      </c>
       <c r="J10" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K10" s="26"/>
       <c r="L10" s="23"/>
       <c r="M10" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N10" s="27"/>
       <c r="O10" s="27" t="s">
@@ -2459,27 +2503,35 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>864</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="37"/>
-      <c r="G11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
+      <c r="G11" s="23">
+        <v>4</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="23">
+        <v>2</v>
+      </c>
       <c r="J11" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="26"/>
-      <c r="L11" s="23"/>
+      <c r="L11" s="23">
+        <v>100</v>
+      </c>
       <c r="M11" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N11" s="27"/>
       <c r="O11" s="27" t="s">
@@ -2490,7 +2542,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -2511,7 +2563,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -2541,7 +2593,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -2562,7 +2614,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -3399,7 +3451,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I6" s="43">
         <v>1</v>
@@ -3423,7 +3475,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -3437,7 +3489,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="47" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I7" s="43">
         <v>2</v>
@@ -3457,13 +3509,13 @@
         <v>11</v>
       </c>
       <c r="P7" s="52" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2">
         <v>62</v>
@@ -3477,7 +3529,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I8" s="43">
         <v>2</v>
@@ -3501,7 +3553,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -3516,7 +3568,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I9" s="43">
         <v>3</v>
@@ -3538,17 +3590,17 @@
         <v>8</v>
       </c>
       <c r="P9" s="52" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382465278</v>
+        <v>44342.6296875</v>
       </c>
       <c r="D10" s="2">
         <v>214</v>
@@ -3559,7 +3611,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="47" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I10" s="43">
         <v>1</v>
@@ -3581,7 +3633,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -3596,7 +3648,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="47" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I11" s="43">
         <v>2</v>
@@ -3620,7 +3672,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -3641,7 +3693,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -3671,7 +3723,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -3694,7 +3746,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -3775,75 +3827,103 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>856</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>78</v>
+      </c>
       <c r="I18" s="23"/>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="26"/>
-      <c r="L18" s="23"/>
+      <c r="L18" s="23">
+        <v>100</v>
+      </c>
       <c r="M18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="27">
+        <v>4</v>
+      </c>
       <c r="O18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>79</v>
+      </c>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>857</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
+      <c r="G19" s="23">
+        <v>2</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>80</v>
+      </c>
       <c r="I19" s="23"/>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K19" s="26"/>
       <c r="L19" s="23"/>
       <c r="M19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="27">
+        <v>2</v>
+      </c>
       <c r="O19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>81</v>
+      </c>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>858</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
+      <c r="G20" s="23">
+        <v>3</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>82</v>
+      </c>
       <c r="I20" s="23"/>
       <c r="J20" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" s="26"/>
-      <c r="L20" s="23"/>
+      <c r="L20" s="23">
+        <v>100</v>
+      </c>
       <c r="M20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <v>4</v>
+      </c>
       <c r="O20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>83</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
@@ -4547,7 +4627,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -4577,7 +4657,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2">
         <v>63</v>
@@ -4607,7 +4687,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -4638,11 +4718,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382465278</v>
+        <v>44342.6296875</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4669,7 +4749,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -4700,7 +4780,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -4721,7 +4801,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -4751,7 +4831,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -4772,7 +4852,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -5630,21 +5710,27 @@
       <c r="B6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>873</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="23">
+        <v>1</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K6" s="26"/>
       <c r="L6" s="23"/>
       <c r="M6" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="27"/>
       <c r="O6" s="27" t="s">
@@ -5655,26 +5741,34 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>874</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>1</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="23">
+        <v>2</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="26"/>
-      <c r="L7" s="23"/>
+      <c r="L7" s="23">
+        <v>100</v>
+      </c>
       <c r="M7" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="27"/>
       <c r="O7" s="27" t="s">
@@ -5685,26 +5779,34 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2">
         <v>225</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>875</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>2</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="23">
+        <v>1</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="26"/>
-      <c r="L8" s="23"/>
+      <c r="L8" s="23">
+        <v>100</v>
+      </c>
       <c r="M8" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="27"/>
       <c r="O8" s="27" t="s">
@@ -5715,27 +5817,35 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2024</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>876</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>3</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="23">
+        <v>2</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="26"/>
-      <c r="L9" s="23"/>
+      <c r="L9" s="23">
+        <v>100</v>
+      </c>
       <c r="M9" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="27"/>
       <c r="O9" s="27" t="s">
@@ -5746,58 +5856,76 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382465278</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44342.6296875</v>
+      </c>
+      <c r="D10" s="2">
+        <v>877</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
+      <c r="G10" s="23">
+        <v>4</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="23">
+        <v>2</v>
+      </c>
       <c r="J10" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K10" s="26"/>
       <c r="L10" s="23"/>
       <c r="M10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="27">
+        <v>2</v>
+      </c>
       <c r="O10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>90</v>
+      </c>
       <c r="Q10" s="37"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>878</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="37"/>
-      <c r="G11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
+      <c r="G11" s="23">
+        <v>4</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="23">
+        <v>3</v>
+      </c>
       <c r="J11" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="26"/>
-      <c r="L11" s="23"/>
+      <c r="L11" s="23">
+        <v>100</v>
+      </c>
       <c r="M11" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N11" s="27"/>
       <c r="O11" s="27" t="s">
@@ -5808,7 +5936,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5829,7 +5957,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5859,7 +5987,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -5880,7 +6008,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -6741,7 +6869,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -6779,7 +6907,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2">
         <v>64</v>
@@ -6817,7 +6945,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -6856,11 +6984,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382465278</v>
+        <v>44342.6296875</v>
       </c>
       <c r="D10" s="2">
         <v>223</v>
@@ -6897,7 +7025,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -6936,7 +7064,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -6957,7 +7085,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -6987,7 +7115,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -7010,7 +7138,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -7091,21 +7219,29 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>868</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="23"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" s="23">
+        <v>2</v>
+      </c>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="26"/>
-      <c r="L18" s="23"/>
+      <c r="L18" s="23">
+        <v>50</v>
+      </c>
       <c r="M18" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N18" s="27"/>
       <c r="O18" s="27" t="s">
@@ -7115,21 +7251,29 @@
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>869</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="23"/>
+      <c r="G19" s="23">
+        <v>2</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" s="23">
+        <v>2</v>
+      </c>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="26"/>
-      <c r="L19" s="23"/>
+      <c r="L19" s="23">
+        <v>100</v>
+      </c>
       <c r="M19" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N19" s="27"/>
       <c r="O19" s="27" t="s">
@@ -7139,21 +7283,29 @@
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>870</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="23"/>
+      <c r="G20" s="23">
+        <v>3</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="23">
+        <v>1</v>
+      </c>
       <c r="J20" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" s="26"/>
-      <c r="L20" s="23"/>
+      <c r="L20" s="23">
+        <v>50</v>
+      </c>
       <c r="M20" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N20" s="27"/>
       <c r="O20" s="27" t="s">
@@ -7163,51 +7315,73 @@
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>871</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="23"/>
+      <c r="G21" s="23">
+        <v>3</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="I21" s="23">
+        <v>1</v>
+      </c>
       <c r="J21" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K21" s="26"/>
       <c r="L21" s="23"/>
       <c r="M21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N21" s="27">
+        <v>1</v>
+      </c>
       <c r="O21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>96</v>
+      </c>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>872</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="37"/>
-      <c r="G22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="23"/>
+      <c r="G22" s="23">
+        <v>4</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="23">
+        <v>2</v>
+      </c>
       <c r="J22" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K22" s="26"/>
-      <c r="L22" s="23"/>
+      <c r="L22" s="23">
+        <v>100</v>
+      </c>
       <c r="M22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N22" s="27">
+        <v>2</v>
+      </c>
       <c r="O22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>98</v>
+      </c>
       <c r="Q22" s="37"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
@@ -7865,7 +8039,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -7895,7 +8069,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2">
         <v>65</v>
@@ -7925,7 +8099,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -7956,11 +8130,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382465278</v>
+        <v>44342.6296875</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7987,7 +8161,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -8018,7 +8192,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -8039,7 +8213,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -8069,7 +8243,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -8090,7 +8264,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -8489,75 +8663,111 @@
       <c r="Q29" s="37"/>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>865</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="37"/>
-      <c r="G30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="24"/>
-      <c r="I30" s="23"/>
+      <c r="G30" s="23">
+        <v>1</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="I30" s="23">
+        <v>4</v>
+      </c>
       <c r="J30" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K30" s="26"/>
-      <c r="L30" s="23"/>
+      <c r="L30" s="23">
+        <v>100</v>
+      </c>
       <c r="M30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N30" s="27">
+        <v>4</v>
+      </c>
       <c r="O30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P30" s="28" t="s">
+        <v>100</v>
+      </c>
       <c r="Q30" s="37"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>866</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="37"/>
-      <c r="G31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="24"/>
-      <c r="I31" s="23"/>
+      <c r="G31" s="23">
+        <v>2</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="I31" s="23">
+        <v>3</v>
+      </c>
       <c r="J31" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K31" s="26"/>
-      <c r="L31" s="23"/>
+      <c r="L31" s="23">
+        <v>100</v>
+      </c>
       <c r="M31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N31" s="27">
+        <v>3</v>
+      </c>
       <c r="O31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P31" s="28" t="s">
+        <v>102</v>
+      </c>
       <c r="Q31" s="37"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>867</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="37"/>
-      <c r="G32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="24"/>
-      <c r="I32" s="23"/>
+      <c r="G32" s="23">
+        <v>3</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="I32" s="23">
+        <v>4</v>
+      </c>
       <c r="J32" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K32" s="26"/>
-      <c r="L32" s="23"/>
+      <c r="L32" s="23">
+        <v>100</v>
+      </c>
       <c r="M32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N32" s="27">
+        <v>4</v>
+      </c>
       <c r="O32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P32" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="Q32" s="37"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
@@ -8993,7 +9203,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2018</v>
@@ -9023,7 +9233,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2">
         <v>66</v>
@@ -9053,7 +9263,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -9084,11 +9294,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382465278</v>
+        <v>44342.6296875</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9115,7 +9325,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -9146,7 +9356,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -9167,7 +9377,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -9197,7 +9407,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -9218,7 +9428,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>

--- a/public/cohort/fileExcel/xlsxUIT/NA PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/NA PTA en onderwijsprogramma.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -888,6 +888,9 @@
     <t>H1 - Beweging</t>
   </si>
   <si>
+    <t>kies...</t>
+  </si>
+  <si>
     <t>startJaar</t>
   </si>
   <si>
@@ -933,7 +936,7 @@
     <t>groep</t>
   </si>
   <si>
-    <t>De BINAS HAVO/VWO is bij alle schriftelijke toetsen een toegestaan hulpmiddel, tenzij anders vermeld bij de toets.</t>
+    <t>De BINAS HAVO/VWO is bij alle schriftelijke toetsen een toegestaan hulpmiddel.</t>
   </si>
   <si>
     <t>mavo?</t>
@@ -958,6 +961,9 @@
   </si>
   <si>
     <t>H7 en 8 - Kracht en beweging</t>
+  </si>
+  <si>
+    <t>De BINAS HAVO/VWO is bij alle schriftelijke toetsen een toegestaan hulpmiddel, tenzij anders vermeld bij de toets.</t>
   </si>
   <si>
     <t>H1, H2, H7, H8, H11, H12 - Mechanica</t>
@@ -2438,7 +2444,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -2504,7 +2510,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -2517,7 +2523,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -2534,10 +2540,10 @@
         <v>2</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -2602,7 +2608,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>224</v>
@@ -2615,7 +2621,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I8" s="45">
         <v>3</v>
@@ -2632,7 +2638,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -2698,7 +2704,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -2712,7 +2718,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -2729,7 +2735,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -2795,11 +2801,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541041667</v>
+        <v>44378.451273148</v>
       </c>
       <c r="D10" s="2">
         <v>863</v>
@@ -2809,7 +2815,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -2826,10 +2832,10 @@
         <v>2</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -2894,7 +2900,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -2908,7 +2914,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I11" s="45">
         <v>3</v>
@@ -2925,7 +2931,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -2991,7 +2997,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -3014,7 +3020,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -3053,14 +3059,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>3</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -3085,7 +3091,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -4711,7 +4717,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -4728,7 +4734,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -4794,7 +4800,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -4807,7 +4813,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -4824,10 +4830,10 @@
         <v>2</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -4892,7 +4898,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>62</v>
@@ -4905,7 +4911,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -4922,7 +4928,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -4988,7 +4994,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -5002,7 +5008,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I9" s="45">
         <v>3</v>
@@ -5021,10 +5027,10 @@
         <v>3</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -5089,11 +5095,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541041667</v>
+        <v>44378.451273148</v>
       </c>
       <c r="D10" s="2">
         <v>214</v>
@@ -5103,7 +5109,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I10" s="45">
         <v>1</v>
@@ -5118,7 +5124,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -5184,7 +5190,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -5198,7 +5204,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -5215,7 +5221,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -5281,7 +5287,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5304,7 +5310,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5343,14 +5349,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -5375,7 +5381,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -5481,7 +5487,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -5498,10 +5504,10 @@
         <v>4</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -5573,7 +5579,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -5588,10 +5594,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -5663,7 +5669,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -5680,10 +5686,10 @@
         <v>4</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -6042,7 +6048,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -7106,7 +7112,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -7194,7 +7200,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>63</v>
@@ -7282,7 +7288,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -7371,11 +7377,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541041667</v>
+        <v>44378.451273148</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7460,7 +7466,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -7549,7 +7555,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -7572,7 +7578,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -7611,7 +7617,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -7641,7 +7647,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -7747,7 +7753,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -7764,10 +7770,10 @@
         <v>4</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -7839,7 +7845,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -7854,10 +7860,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -7929,7 +7935,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -7946,10 +7952,10 @@
         <v>4</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -8308,7 +8314,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -9287,7 +9293,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D6" s="2">
         <v>873</v>
@@ -9314,7 +9320,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -9380,7 +9386,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -9393,7 +9399,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I7" s="45">
         <v>3</v>
@@ -9410,7 +9416,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -9476,7 +9482,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>225</v>
@@ -9489,7 +9495,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -9506,7 +9512,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -9572,7 +9578,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -9586,7 +9592,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -9603,10 +9609,10 @@
         <v>2</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -9671,11 +9677,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541041667</v>
+        <v>44378.451273148</v>
       </c>
       <c r="D10" s="2">
         <v>877</v>
@@ -9685,7 +9691,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I10" s="45">
         <v>3</v>
@@ -9702,7 +9708,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -9768,7 +9774,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -9857,7 +9863,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -9880,7 +9886,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -9919,14 +9925,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>3</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -9951,7 +9957,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -11569,7 +11575,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D6" s="2">
         <v>219</v>
@@ -11579,7 +11585,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -11594,7 +11600,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -11660,7 +11666,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -11673,7 +11679,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -11690,7 +11696,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -11756,7 +11762,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>64</v>
@@ -11769,7 +11775,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -11786,7 +11792,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -11852,7 +11858,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -11866,7 +11872,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -11883,7 +11889,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -11949,11 +11955,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541041667</v>
+        <v>44378.451273148</v>
       </c>
       <c r="D10" s="2">
         <v>223</v>
@@ -11963,7 +11969,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -11980,10 +11986,10 @@
         <v>2</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -12048,7 +12054,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -12062,7 +12068,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I11" s="45">
         <v>3</v>
@@ -12079,7 +12085,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -12145,7 +12151,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -12168,7 +12174,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -12207,14 +12213,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -12239,7 +12245,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -12345,7 +12351,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -12362,7 +12368,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -12435,7 +12441,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -12452,7 +12458,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -12525,7 +12531,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I20" s="45">
         <v>1</v>
@@ -12542,7 +12548,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -12615,7 +12621,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I21" s="45">
         <v>1</v>
@@ -12632,10 +12638,10 @@
         <v>1</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -12707,7 +12713,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I22" s="45">
         <v>2</v>
@@ -12726,10 +12732,10 @@
         <v>2</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -12924,7 +12930,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -13905,7 +13911,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -13990,7 +13996,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -14078,7 +14084,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>65</v>
@@ -14166,7 +14172,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -14255,11 +14261,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541041667</v>
+        <v>44378.451273148</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14344,7 +14350,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -14433,7 +14439,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -14456,7 +14462,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -14495,7 +14501,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -14525,7 +14531,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -14631,7 +14637,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -14648,7 +14654,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -14721,7 +14727,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -14738,7 +14744,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -14811,7 +14817,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I20" s="45">
         <v>1</v>
@@ -14828,7 +14834,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -14901,7 +14907,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I21" s="45">
         <v>1</v>
@@ -14918,10 +14924,10 @@
         <v>1</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -14993,7 +14999,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I22" s="45">
         <v>2</v>
@@ -15012,10 +15018,10 @@
         <v>2</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -15210,7 +15216,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -15334,7 +15340,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I30" s="45">
         <v>4</v>
@@ -15353,10 +15359,10 @@
         <v>4</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -15428,7 +15434,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I31" s="45">
         <v>3</v>
@@ -15447,10 +15453,10 @@
         <v>3</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -15522,7 +15528,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I32" s="45">
         <v>4</v>
@@ -15541,10 +15547,10 @@
         <v>4</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -15873,7 +15879,7 @@
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
       <c r="G38" s="48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
@@ -16229,7 +16235,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16314,7 +16320,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2018</v>
@@ -16402,7 +16408,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>66</v>
@@ -16490,7 +16496,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -16579,11 +16585,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541041667</v>
+        <v>44378.451273148</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16668,7 +16674,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -16757,7 +16763,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -16780,7 +16786,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -16819,7 +16825,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -16849,7 +16855,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -17610,7 +17616,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I30" s="45">
         <v>4</v>
@@ -17629,10 +17635,10 @@
         <v>4</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -17704,7 +17710,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I31" s="45">
         <v>3</v>
@@ -17723,10 +17729,10 @@
         <v>3</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -17798,7 +17804,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I32" s="45">
         <v>4</v>
@@ -17817,10 +17823,10 @@
         <v>4</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -18149,7 +18155,7 @@
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
       <c r="G38" s="48" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
